--- a/manualTesting/Check.xlsx
+++ b/manualTesting/Check.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="80">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Чтение новости с Главной</t>
   </si>
   <si>
-    <t>Переход с Главной на экран с новостями через внопку "Все новости", проверка отображения новостей</t>
-  </si>
-  <si>
     <t>Фильтрация новостей со страницы "Новости" по дате От конкретного дня</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>Фильтрация новостей на страничке "Редактирование новостей" по активности – Неактивна</t>
   </si>
   <si>
-    <t>Переход из раздела Цитат на Главную</t>
-  </si>
-  <si>
     <t>Уведомления от сторонних приложений</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Валидация поля "Пароль"</t>
   </si>
   <si>
-    <t>Авторизация пользователя с зарегистррованными логином и паролем  и выход из приложения</t>
-  </si>
-  <si>
     <t>Авторизация пользователя с зарегистррованным логином и незарегистррованным паролем</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>Создание новости датой прошедшего дня</t>
   </si>
   <si>
-    <t>Создание новости датой следующего дня</t>
-  </si>
-  <si>
     <t>Создание новости с некорректным временем</t>
   </si>
   <si>
@@ -233,6 +221,39 @@
   </si>
   <si>
     <t>Навигация из страницы Новостей по разделам приложения</t>
+  </si>
+  <si>
+    <t>Отображение новостей на странице "Новости"</t>
+  </si>
+  <si>
+    <t>Развернуть любую новость</t>
+  </si>
+  <si>
+    <t>Отмена фильтрации</t>
+  </si>
+  <si>
+    <t>Фильтрации без ввода фильтров</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на страничке "Новости" по дате От До ненаступивших дней</t>
+  </si>
+  <si>
+    <t>Отображение новостей на странице "Редактирование новостей"</t>
+  </si>
+  <si>
+    <t>Сворачивание/разворачивание новостей на главном экране</t>
+  </si>
+  <si>
+    <t>Отображение цитат на странице с цитатами</t>
+  </si>
+  <si>
+    <t>Переход с Главной на экран с новостями через внопку "Все новости"</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя с зарегистррованными логином и паролем и выход из приложения</t>
+  </si>
+  <si>
+    <t>Создание новости датой будующего дня</t>
   </si>
 </sst>
 </file>
@@ -467,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -511,9 +532,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -562,7 +580,103 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1305,10 +1419,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C870"/>
+  <dimension ref="A1:C877"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1330,15 +1444,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="15.6">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -1349,7 +1463,7 @@
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -1359,8 +1473,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="13.2">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
+      <c r="A5" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
@@ -1371,7 +1485,7 @@
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -1382,7 +1496,7 @@
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -1393,7 +1507,7 @@
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -1415,7 +1529,7 @@
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A10" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>5</v>
@@ -1425,15 +1539,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="15.6">
-      <c r="A11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:3" ht="13.2">
       <c r="A12" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>5</v>
@@ -1444,7 +1558,7 @@
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A13" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
@@ -1455,7 +1569,7 @@
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A14" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>5</v>
@@ -1466,7 +1580,7 @@
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A15" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
@@ -1476,11 +1590,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A17" s="3" t="s">
@@ -1516,15 +1630,15 @@
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>6</v>
@@ -1533,9 +1647,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="26.4">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
@@ -1545,8 +1659,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="13.2">
-      <c r="A23" s="13" t="s">
-        <v>68</v>
+      <c r="A23" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
@@ -1555,60 +1669,60 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="13.2">
+      <c r="A24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6">
+      <c r="A25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:3" ht="13.2">
-      <c r="A25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="13.2">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="13.2" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="13.2">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="13.2" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="13.2">
-      <c r="A28" s="4" t="s">
-        <v>55</v>
+    <row r="28" spans="1:3" ht="13.2">
+      <c r="A28" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>15</v>
+      <c r="C28" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A29" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>6</v>
@@ -1619,32 +1733,32 @@
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A30" s="4" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>15</v>
+      <c r="C30" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A31" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>15</v>
+      <c r="C31" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>12</v>
@@ -1652,106 +1766,106 @@
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="13.2">
-      <c r="A34" s="13" t="s">
-        <v>72</v>
+      <c r="A34" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>12</v>
+      <c r="C35" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A36" s="4" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>12</v>
+      <c r="C36" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A37" s="4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>60</v>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="13.2">
+      <c r="A38" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A39" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A40" s="4" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C40" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A41" s="4" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>15</v>
+      <c r="C41" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A42" s="4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>6</v>
@@ -1762,7 +1876,7 @@
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A43" s="4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>6</v>
@@ -1771,20 +1885,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="13.2">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="13.2">
+        <v>6</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>6</v>
@@ -1793,31 +1907,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="13.2">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="13.2">
+        <v>6</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="13.2">
+        <v>6</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>3</v>
@@ -1828,10 +1942,10 @@
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A49" s="4" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>12</v>
@@ -1839,18 +1953,18 @@
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A50" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.2">
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A51" s="4" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>5</v>
@@ -1859,78 +1973,86 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.2">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A52" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="13.2">
+      <c r="A53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="15.6">
-      <c r="A53" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27"/>
+      <c r="C53" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="13.2">
-      <c r="A54" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>15</v>
+      <c r="C54" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" ht="13.2">
       <c r="A55" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.6">
-      <c r="A56" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27"/>
+    <row r="56" spans="1:3" s="1" customFormat="1" ht="13.2">
+      <c r="A56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" ht="13.2">
-      <c r="A57" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" ht="13.2">
-      <c r="A58" s="17" t="s">
-        <v>31</v>
+    <row r="58" spans="1:3" ht="13.2">
+      <c r="A58" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" ht="13.2">
-      <c r="A59" s="21" t="s">
-        <v>70</v>
+    <row r="59" spans="1:3" ht="13.2">
+      <c r="A59" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>5</v>
@@ -1939,88 +2061,84 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6">
-      <c r="A60" s="25" t="s">
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="15.6">
+      <c r="A60" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="26"/>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" ht="13.2">
+      <c r="A61" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="1" customFormat="1" ht="13.2">
+      <c r="A62" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.6">
+      <c r="A63" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+    </row>
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A64" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="13.2">
+      <c r="A65" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="13.2">
+      <c r="A66" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.6">
+      <c r="A67" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="27"/>
-    </row>
-    <row r="61" spans="1:3" ht="13.2">
-      <c r="A61" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="13.2">
-      <c r="A62" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="13.2">
-      <c r="A63" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13.2">
-      <c r="A64" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="13.2">
-      <c r="A65" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.6">
-      <c r="A66" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="27"/>
-    </row>
-    <row r="67" spans="1:3" ht="13.2">
-      <c r="A67" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="B67" s="25"/>
+      <c r="C67" s="26"/>
     </row>
     <row r="68" spans="1:3" ht="13.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -2030,13 +2148,79 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13.2"/>
-    <row r="70" spans="1:3" ht="13.2"/>
-    <row r="71" spans="1:3" ht="13.2"/>
-    <row r="72" spans="1:3" ht="13.2"/>
-    <row r="73" spans="1:3" ht="13.2"/>
-    <row r="74" spans="1:3" ht="13.2"/>
-    <row r="75" spans="1:3" ht="13.2"/>
+    <row r="69" spans="1:3" ht="13.2">
+      <c r="A69" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="13.2">
+      <c r="A70" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="13.2">
+      <c r="A71" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="13.2">
+      <c r="A72" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.6">
+      <c r="A73" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="25"/>
+      <c r="C73" s="26"/>
+    </row>
+    <row r="74" spans="1:3" ht="13.2">
+      <c r="A74" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="13.2">
+      <c r="A75" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="76" spans="1:3" ht="13.2"/>
     <row r="77" spans="1:3" ht="13.2"/>
     <row r="78" spans="1:3" ht="13.2"/>
@@ -2832,353 +3016,420 @@
     <row r="868" ht="13.2"/>
     <row r="869" ht="13.2"/>
     <row r="870" ht="13.2"/>
+    <row r="871" ht="13.2"/>
+    <row r="872" ht="13.2"/>
+    <row r="873" ht="13.2"/>
+    <row r="874" ht="13.2"/>
+    <row r="875" ht="13.2"/>
+    <row r="876" ht="13.2"/>
+    <row r="877" ht="13.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A73:C73"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A63:C63"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A60:C60"/>
   </mergeCells>
-  <conditionalFormatting sqref="C58:C59">
-    <cfRule type="expression" dxfId="65" priority="93">
-      <formula>$D58:$D90="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58:C59">
-    <cfRule type="expression" dxfId="64" priority="95">
-      <formula>$D58:$D90="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="63" priority="96">
-      <formula>$D58:$D90="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="62" priority="98">
-      <formula>$D58:$D90="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:C57 C12:C15">
-    <cfRule type="expression" dxfId="61" priority="105">
-      <formula>$D12:$D45="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:C57 C12:C15">
-    <cfRule type="expression" dxfId="60" priority="106">
-      <formula>$D12:$D45="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="59" priority="61">
-      <formula>$D63:$D99="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="58" priority="62">
-      <formula>$D63:$D99="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="57" priority="55">
-      <formula>$D25:$D50="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="56" priority="56">
-      <formula>$D25:$D50="Failed"</formula>
+  <conditionalFormatting sqref="C66 A65:C65">
+    <cfRule type="expression" dxfId="77" priority="107">
+      <formula>$D65:$D97="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66 A65:C65">
+    <cfRule type="expression" dxfId="76" priority="109">
+      <formula>$D65:$D97="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C24">
+    <cfRule type="expression" dxfId="75" priority="119">
+      <formula>$D23:$D56="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C24">
+    <cfRule type="expression" dxfId="74" priority="120">
+      <formula>$D23:$D56="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="expression" dxfId="73" priority="75">
+      <formula>$D70:$D106="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="expression" dxfId="72" priority="76">
+      <formula>$D70:$D106="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="71" priority="69">
+      <formula>$D31:$D58="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="70" priority="70">
+      <formula>$D31:$D58="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="expression" dxfId="69" priority="63">
+      <formula>$D21:$D56="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="expression" dxfId="68" priority="64">
+      <formula>$D21:$D56="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="67" priority="59">
+      <formula>$D61:$D89="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="66" priority="60">
+      <formula>$D61:$D89="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="65" priority="55">
+      <formula>$D71:$D107="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="64" priority="56">
+      <formula>$D71:$D107="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" dxfId="63" priority="53">
+      <formula>$D72:$D108="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" dxfId="62" priority="54">
+      <formula>$D72:$D108="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C29 C62">
+    <cfRule type="expression" dxfId="61" priority="47">
+      <formula>$D28:$D57="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C29 C62">
+    <cfRule type="expression" dxfId="60" priority="48">
+      <formula>$D28:$D57="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="expression" dxfId="59" priority="35">
+      <formula>$D74:$D110="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="expression" dxfId="58" priority="36">
+      <formula>$D74:$D110="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="expression" dxfId="57" priority="33">
+      <formula>$D75:$D111="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="expression" dxfId="56" priority="34">
+      <formula>$D75:$D111="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9 C6">
+    <cfRule type="expression" dxfId="55" priority="31">
+      <formula>$D6:$D47="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9 C6">
+    <cfRule type="expression" dxfId="54" priority="32">
+      <formula>$D6:$D47="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 C12:C15">
+    <cfRule type="expression" dxfId="53" priority="29">
+      <formula>$D10:$D50="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 C12:C15">
+    <cfRule type="expression" dxfId="52" priority="30">
+      <formula>$D10:$D50="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="51" priority="25">
+      <formula>$D40:$D63="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="50" priority="26">
+      <formula>$D40:$D63="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="49" priority="23">
+      <formula>$D32:$D58="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="48" priority="24">
+      <formula>$D32:$D58="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="47" priority="197">
+      <formula>$D17:$D55="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="46" priority="199">
+      <formula>$D17:$D55="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56 C46:C48">
+    <cfRule type="expression" dxfId="45" priority="225">
+      <formula>$D46:$D65="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56 C46:C48">
+    <cfRule type="expression" dxfId="44" priority="227">
+      <formula>$D46:$D65="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="43" priority="291">
+      <formula>$D57:$D80="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="42" priority="294">
+      <formula>$D57:$D80="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="41" priority="299">
+      <formula>$D5:$D58="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="40" priority="301">
+      <formula>$D5:$D58="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C39 C58">
+    <cfRule type="expression" dxfId="39" priority="316">
+      <formula>$D35:$D59="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C39 C58">
+    <cfRule type="expression" dxfId="38" priority="317">
+      <formula>$D35:$D59="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C34 C59">
+    <cfRule type="expression" dxfId="37" priority="325">
+      <formula>$D33:$D58="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C34 C59">
+    <cfRule type="expression" dxfId="36" priority="326">
+      <formula>$D33:$D58="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C52">
+    <cfRule type="expression" dxfId="35" priority="338">
+      <formula>$D49:$D66="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C52">
+    <cfRule type="expression" dxfId="34" priority="339">
+      <formula>$D49:$D66="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="33" priority="341">
+      <formula>$D44:$D63="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="32" priority="345">
+      <formula>$D44:$D63="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="expression" dxfId="31" priority="356">
+      <formula>$D66:$D97="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="expression" dxfId="30" priority="357">
+      <formula>$D66:$D97="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C69">
+    <cfRule type="expression" dxfId="29" priority="360">
+      <formula>$D68:$D103="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C69">
+    <cfRule type="expression" dxfId="28" priority="361">
+      <formula>$D68:$D103="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="27" priority="14">
+      <formula>$D30:$D58="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="26" priority="13">
+      <formula>$D30:$D58="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="25" priority="12">
+      <formula>$D30:$D59="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="24" priority="11">
+      <formula>$D30:$D59="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C27 C39:C40">
+    <cfRule type="expression" dxfId="23" priority="482">
+      <formula>$D26:$D56="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C27 C39:C40">
+    <cfRule type="expression" dxfId="22" priority="483">
+      <formula>$D26:$D56="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="expression" dxfId="21" priority="490">
+      <formula>$D41:$D62="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="expression" dxfId="20" priority="491">
+      <formula>$D41:$D62="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="19" priority="492">
+      <formula>$D45:$D63="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="18" priority="493">
+      <formula>$D45:$D63="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="17" priority="8">
+      <formula>$D48:$D72="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="16" priority="7">
+      <formula>$D48:$D72="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="15" priority="519">
+      <formula>$D43:$D65="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="14" priority="521">
+      <formula>$D43:$D65="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="expression" dxfId="13" priority="6">
+      <formula>$D64:$D96="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>$D64:$D96="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>$D64:$D96="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>$D64:$D96="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:C55">
+    <cfRule type="expression" dxfId="9" priority="544">
+      <formula>$D53:$D69="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:C55">
+    <cfRule type="expression" dxfId="8" priority="545">
+      <formula>$D53:$D69="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="55" priority="49">
-      <formula>$D21:$D49="Success"</formula>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$D21:$D55="Success"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="54" priority="50">
-      <formula>$D21:$D49="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="53" priority="45">
-      <formula>$D54:$D82="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="52" priority="46">
-      <formula>$D54:$D82="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="51" priority="41">
-      <formula>$D64:$D100="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="50" priority="42">
-      <formula>$D64:$D100="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="49" priority="39">
-      <formula>$D65:$D101="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="48" priority="40">
-      <formula>$D65:$D101="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="47" priority="33">
-      <formula>$D55:$D84="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="46" priority="34">
-      <formula>$D55:$D84="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="45" priority="21">
-      <formula>$D67:$D103="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="44" priority="22">
-      <formula>$D67:$D103="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="43" priority="19">
-      <formula>$D68:$D104="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="42" priority="20">
-      <formula>$D68:$D104="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="41" priority="17">
-      <formula>$D9:$D43="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="40" priority="18">
-      <formula>$D9:$D43="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="39" priority="15">
-      <formula>$D10:$D43="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="38" priority="16">
-      <formula>$D10:$D43="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C32">
-    <cfRule type="expression" dxfId="37" priority="11">
-      <formula>$D30:$D52="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C32">
-    <cfRule type="expression" dxfId="36" priority="12">
-      <formula>$D30:$D52="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="35" priority="9">
-      <formula>$D27:$D51="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="34" priority="10">
-      <formula>$D27:$D51="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="33" priority="183">
-      <formula>$D17:$D48="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="32" priority="185">
-      <formula>$D17:$D48="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="31" priority="211">
-      <formula>$D49:$D68="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="30" priority="213">
-      <formula>$D49:$D68="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="29" priority="223">
-      <formula>$D22:$D49="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="28" priority="224">
-      <formula>$D22:$D49="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29 C50">
-    <cfRule type="expression" dxfId="27" priority="277">
-      <formula>$D28:$D51="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29 C50">
-    <cfRule type="expression" dxfId="26" priority="280">
-      <formula>$D28:$D51="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="25" priority="285">
-      <formula>$D5:$D51="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="24" priority="287">
-      <formula>$D5:$D51="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="23" priority="302">
-      <formula>$D51:$D75="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="22" priority="303">
-      <formula>$D51:$D75="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C37">
-    <cfRule type="expression" dxfId="21" priority="304">
-      <formula>$D35:$D55="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C37">
-    <cfRule type="expression" dxfId="20" priority="305">
-      <formula>$D35:$D55="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="19" priority="307">
-      <formula>$D33:$D53="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="18" priority="310">
-      <formula>$D33:$D53="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="17" priority="311">
-      <formula>$D52:$D77="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="16" priority="312">
-      <formula>$D52:$D77="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="15" priority="313">
-      <formula>$D34:$D55="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="14" priority="315">
-      <formula>$D34:$D55="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39 C42:C45">
-    <cfRule type="expression" dxfId="13" priority="324">
-      <formula>$D39:$D56="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39 C42:C45">
-    <cfRule type="expression" dxfId="12" priority="325">
-      <formula>$D39:$D56="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38 C40:C41">
-    <cfRule type="expression" dxfId="11" priority="327">
-      <formula>$D38:$D56="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38 C40:C41">
-    <cfRule type="expression" dxfId="10" priority="331">
-      <formula>$D38:$D56="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C48">
-    <cfRule type="expression" dxfId="9" priority="340">
-      <formula>$D46:$D62="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C48">
-    <cfRule type="expression" dxfId="8" priority="341">
-      <formula>$D46:$D62="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="7" priority="342">
-      <formula>$D59:$D90="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="6" priority="343">
-      <formula>$D59:$D90="Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C62 C6:C8">
-    <cfRule type="expression" dxfId="5" priority="346">
-      <formula>$D6:$D41="Success"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C62 C6:C8">
-    <cfRule type="expression" dxfId="4" priority="347">
-      <formula>$D6:$D41="Failed"</formula>
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$D21:$D55="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="expression" dxfId="3" priority="350">
-      <formula>$D18:$D48="Success"</formula>
+    <cfRule type="expression" dxfId="5" priority="566">
+      <formula>$D18:$D55="Success"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="expression" dxfId="2" priority="351">
-      <formula>$D18:$D48="Failed"</formula>
+    <cfRule type="expression" dxfId="4" priority="567">
+      <formula>$D18:$D55="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="expression" dxfId="3" priority="568">
+      <formula>$D7:$D49="Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="expression" dxfId="2" priority="569">
+      <formula>$D7:$D49="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="expression" dxfId="1" priority="354">
-      <formula>$D3:$D50="Success"</formula>
+    <cfRule type="expression" dxfId="1" priority="570">
+      <formula>$D3:$D57="Success"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="expression" dxfId="0" priority="355">
-      <formula>$D3:$D50="Failed"</formula>
+    <cfRule type="expression" dxfId="0" priority="571">
+      <formula>$D3:$D57="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="B67:B68 B61:B63 B25:B52 B57:B59 B55 B12:B15 B3:B10 B17:B19 B21:B23">
+    <dataValidation type="list" allowBlank="1" sqref="B74:B75 B68:B70 B26:B59 B64:B66 B62 B21:B24 B17:B19 B3:B10 B12:B15">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C67:C68 C61:C65 C54:C55 C25:C52 C3:C10 C57:C59 C12:C15 C17:C19 C21:C23">
+    <dataValidation type="list" allowBlank="1" sqref="C74:C75 C68:C72 C61:C62 C26:C59 C64:C66 C21:C24 C17:C19 C12:C15 C3:C10">
       <formula1>"Success,Failed"</formula1>
     </dataValidation>
   </dataValidations>
